--- a/excel/eng -> prt.xlsx
+++ b/excel/eng -> prt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="977" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,19 +25,19 @@
     <t xml:space="preserve">apple</t>
   </si>
   <si>
-    <t xml:space="preserve">apple PRT</t>
+    <t xml:space="preserve">apple PRT a</t>
   </si>
   <si>
     <t xml:space="preserve">banana</t>
   </si>
   <si>
-    <t xml:space="preserve">banana PRT</t>
+    <t xml:space="preserve">banana PRT 1</t>
   </si>
   <si>
     <t xml:space="preserve">fig</t>
   </si>
   <si>
-    <t xml:space="preserve">fig PRT</t>
+    <t xml:space="preserve">fig PRT rrr</t>
   </si>
   <si>
     <t xml:space="preserve">cherry</t>
@@ -153,13 +153,13 @@
   <dimension ref="A1:B65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1:B5"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
